--- a/legion_centurion/legion_centurion.xlsx
+++ b/legion_centurion/legion_centurion.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/ ANTIGRAVITY/legion_centurion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/legion_centurion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856B7EB-2754-1C4F-B4F0-5403207A657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76694F-0F67-5949-882C-BC254FCF9EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{B49CA26D-17E4-1041-9F6C-DBD86CE9FF01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B49CA26D-17E4-1041-9F6C-DBD86CE9FF01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="BDLEG">[1]!BDLEGION[#All]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>MONICA ANDREA AMBRIZ GOMEZ</t>
   </si>
@@ -165,9 +171,6 @@
   </si>
   <si>
     <t>MARIA JOSE GUZMAN ZAMORA</t>
-  </si>
-  <si>
-    <t>LINDA TANIA MIROSLAVA ENRIQUEZ PRECIADO</t>
   </si>
   <si>
     <t>VELIA PATRICIA BERNAL RAMOS</t>
@@ -532,7 +535,63 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{2A00E9DC-B766-6342-BF1B-2D1407F691B6}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1385,26 +1444,80 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Respuestas de formulario 1"/>
+      <sheetName val="Asesores"/>
+      <sheetName val="BD PROACTIVOS"/>
+      <sheetName val="PROACTIVOS"/>
+      <sheetName val="Ventas Mensuales"/>
+      <sheetName val="EMIT &amp; PAG"/>
+      <sheetName val="RANKING PROMOTORES"/>
+      <sheetName val="QsQ VDA"/>
+      <sheetName val="QsQ GMM"/>
+      <sheetName val="COMPARATIVO VIDA"/>
+      <sheetName val="MDRT"/>
+      <sheetName val="BD LEGION"/>
+      <sheetName val="LEGIÓN CENTURIÓN "/>
+      <sheetName val="BD CONV"/>
+      <sheetName val="CONVENCIONES"/>
+      <sheetName val="BD CC"/>
+      <sheetName val="CAMINO A LA CUMBRE"/>
+      <sheetName val="Avance a graduación "/>
+      <sheetName val="TRAINNING A"/>
+      <sheetName val="BONOS MIOS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}" name="Tabla1354" displayName="Tabla1354" ref="A1:K50" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}" name="Tabla1354" displayName="Tabla1354" ref="A1:K50" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:K50" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I39">
     <sortCondition descending="1" ref="E1:E39"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2CA99AFE-1903-6D4B-93D9-DD22E72018C3}" name="Asesor" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{8D0734FC-3769-4F41-9ECD-2C6FE21FFA0E}" name="Clave" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{1247CE0F-8F5E-194F-AD79-C20593AA6B7C}" name="Fecha_Corte" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{1B89683A-64AB-0646-9B15-2B5DA7E1CEEC}" name="Mes_Actual" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{C4F1D3A5-1E56-8C40-9BD7-1C13F22F25C5}" name="Total_Polizas" dataDxfId="23" dataCellStyle="Millares"/>
-    <tableColumn id="3" xr3:uid="{4C10EFC2-2323-664F-A579-A0B169BFB0BD}" name="Bronce" dataDxfId="22" dataCellStyle="Millares"/>
-    <tableColumn id="2" xr3:uid="{C05A17F7-6BDD-0C40-A77A-7F7E195BCDDE}" name="Plata" dataDxfId="21" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{9C5A32B0-F0C1-9341-8545-6E23D59A5A81}" name="Oro" dataDxfId="20" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{312E2988-4C52-5E40-BB07-41C4565E8822}" name="Platino" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{5E0081A6-70E5-1F47-8576-904196DF75C9}" name="Promedio_Mensual" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{2CA99AFE-1903-6D4B-93D9-DD22E72018C3}" name="Asesor" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{8D0734FC-3769-4F41-9ECD-2C6FE21FFA0E}" name="Clave" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{1247CE0F-8F5E-194F-AD79-C20593AA6B7C}" name="Fecha_Corte" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{1B89683A-64AB-0646-9B15-2B5DA7E1CEEC}" name="Mes_Actual" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{C4F1D3A5-1E56-8C40-9BD7-1C13F22F25C5}" name="Total_Polizas" dataDxfId="26" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{4C10EFC2-2323-664F-A579-A0B169BFB0BD}" name="Bronce" dataDxfId="25" dataCellStyle="Millares"/>
+    <tableColumn id="2" xr3:uid="{C05A17F7-6BDD-0C40-A77A-7F7E195BCDDE}" name="Plata" dataDxfId="24" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{9C5A32B0-F0C1-9341-8545-6E23D59A5A81}" name="Oro" dataDxfId="23" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{312E2988-4C52-5E40-BB07-41C4565E8822}" name="Platino" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{5E0081A6-70E5-1F47-8576-904196DF75C9}" name="Promedio_Mensual" dataDxfId="21">
       <calculatedColumnFormula>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{83B7E9DF-DD3C-F043-ADEE-4C5B72428CB8}" name="Va_En_Meta" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{83B7E9DF-DD3C-F043-ADEE-4C5B72428CB8}" name="Va_En_Meta" dataDxfId="20">
       <calculatedColumnFormula>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1731,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272306BB-1DE5-9749-A828-31E7777A186B}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I50"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1777,121 +1890,121 @@
         <v>37</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7">
-        <v>87538</v>
+        <v>110453</v>
       </c>
       <c r="C2" s="2">
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D2" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2" s="28">
-        <v>70.5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" s="15">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H2" s="15">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="I2" s="20">
-        <v>49.5</v>
+        <v>18</v>
       </c>
       <c r="J2" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>5.875</v>
+        <v>1</v>
       </c>
       <c r="K2" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>✅ EN META</v>
+        <v>❌ POR DEBAJO</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18">
       <c r="A3" s="26" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7">
-        <v>80122</v>
+        <v>94156</v>
       </c>
       <c r="C3" s="2">
         <f>C2</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D3" s="1">
         <f>D2</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" s="28">
-        <v>54</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G3" s="15">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="H3" s="15">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="I3" s="20">
-        <v>66</v>
+        <v>18.5</v>
       </c>
       <c r="J3" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>4.5</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>✅ EN META</v>
+        <v>❌ POR DEBAJO</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7">
-        <v>47116</v>
+        <v>80122</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:D42" si="0">C3</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E4" s="28">
-        <v>47.5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
+        <v>7</v>
+      </c>
+      <c r="G4" s="15">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20">
+        <v>19</v>
+      </c>
+      <c r="J4" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="G4" s="15">
-        <v>24.5</v>
-      </c>
-      <c r="H4" s="15">
-        <v>42.5</v>
-      </c>
-      <c r="I4" s="20">
-        <v>72.5</v>
-      </c>
-      <c r="J4" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>3.9583333333333335</v>
       </c>
       <c r="K4" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -1900,37 +2013,37 @@
     </row>
     <row r="5" spans="1:11" ht="18">
       <c r="A5" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7">
-        <v>107488</v>
+        <v>113450</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E5" s="28">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" s="15">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H5" s="15">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I5" s="20">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J5" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>3.6666666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -1939,37 +2052,37 @@
     </row>
     <row r="6" spans="1:11" ht="18">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7">
-        <v>110453</v>
+        <v>105696</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" s="28">
-        <v>33.5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="15">
-        <v>38.5</v>
+        <v>11</v>
       </c>
       <c r="H6" s="15">
-        <v>56.5</v>
+        <v>14</v>
       </c>
       <c r="I6" s="20">
-        <v>86.5</v>
+        <v>19</v>
       </c>
       <c r="J6" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>2.7916666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -1978,37 +2091,37 @@
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="26" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>90355</v>
+        <v>95148</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" s="28">
-        <v>31.5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="15">
-        <v>40.5</v>
+        <v>11</v>
       </c>
       <c r="H7" s="15">
-        <v>58.5</v>
+        <v>14</v>
       </c>
       <c r="I7" s="20">
-        <v>88.5</v>
+        <v>19</v>
       </c>
       <c r="J7" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>2.625</v>
+        <v>0.5</v>
       </c>
       <c r="K7" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2017,37 +2130,37 @@
     </row>
     <row r="8" spans="1:11" ht="18">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7">
-        <v>104718</v>
+        <v>88234</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E8" s="28">
-        <v>28.5</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>14.5</v>
+      </c>
+      <c r="I8" s="20">
         <v>19.5</v>
       </c>
-      <c r="G8" s="15">
-        <v>43.5</v>
-      </c>
-      <c r="H8" s="15">
-        <v>61.5</v>
-      </c>
-      <c r="I8" s="20">
-        <v>91.5</v>
-      </c>
       <c r="J8" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>2.375</v>
+        <v>0.25</v>
       </c>
       <c r="K8" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2063,30 +2176,30 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G9" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>14.5</v>
+      </c>
+      <c r="I9" s="20">
         <v>19.5</v>
       </c>
-      <c r="F9" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="G9" s="15">
-        <v>52.5</v>
-      </c>
-      <c r="H9" s="15">
-        <v>70.5</v>
-      </c>
-      <c r="I9" s="20">
-        <v>100.5</v>
-      </c>
       <c r="J9" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.625</v>
+        <v>0.25</v>
       </c>
       <c r="K9" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2095,37 +2208,37 @@
     </row>
     <row r="10" spans="1:11" ht="18">
       <c r="A10" s="26" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
-        <v>104750</v>
+        <v>80925</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10" s="28">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="3">
-        <v>31</v>
+        <v>7.5</v>
       </c>
       <c r="G10" s="15">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="H10" s="15">
-        <v>73</v>
+        <v>14.5</v>
       </c>
       <c r="I10" s="20">
-        <v>103</v>
+        <v>19.5</v>
       </c>
       <c r="J10" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.4166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="K10" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2134,37 +2247,37 @@
     </row>
     <row r="11" spans="1:11" ht="18">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="7">
-        <v>104343</v>
+        <v>104718</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E11" s="28">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="3">
-        <v>32</v>
+        <v>7.5</v>
       </c>
       <c r="G11" s="15">
-        <v>56</v>
+        <v>11.5</v>
       </c>
       <c r="H11" s="15">
-        <v>74</v>
+        <v>14.5</v>
       </c>
       <c r="I11" s="20">
-        <v>104</v>
+        <v>19.5</v>
       </c>
       <c r="J11" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K11" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2173,37 +2286,37 @@
     </row>
     <row r="12" spans="1:11" ht="18">
       <c r="A12" s="26" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7">
-        <v>105696</v>
+        <v>116060</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E12" s="28">
-        <v>15.5</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="3">
-        <v>32.5</v>
+        <v>7.5</v>
       </c>
       <c r="G12" s="15">
-        <v>56.5</v>
+        <v>11.5</v>
       </c>
       <c r="H12" s="15">
-        <v>74.5</v>
+        <v>14.5</v>
       </c>
       <c r="I12" s="20">
-        <v>104.5</v>
+        <v>19.5</v>
       </c>
       <c r="J12" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.2916666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="K12" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2212,37 +2325,37 @@
     </row>
     <row r="13" spans="1:11" ht="18">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7">
-        <v>108405</v>
+        <v>111056</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E13" s="28">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="3">
-        <v>33</v>
+        <v>7.5</v>
       </c>
       <c r="G13" s="15">
-        <v>57</v>
+        <v>11.5</v>
       </c>
       <c r="H13" s="15">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="I13" s="20">
-        <v>105</v>
+        <v>19.5</v>
       </c>
       <c r="J13" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="K13" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2251,37 +2364,37 @@
     </row>
     <row r="14" spans="1:11" ht="18">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B14" s="7">
-        <v>100677</v>
+        <v>87538</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E14" s="28">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="3">
-        <v>33</v>
+        <v>7.5</v>
       </c>
       <c r="G14" s="15">
-        <v>57</v>
+        <v>11.5</v>
       </c>
       <c r="H14" s="15">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="I14" s="20">
-        <v>105</v>
+        <v>19.5</v>
       </c>
       <c r="J14" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="K14" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2290,37 +2403,37 @@
     </row>
     <row r="15" spans="1:11" ht="18">
       <c r="A15" s="6" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B15" s="7">
-        <v>80925</v>
+        <v>115047</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E15" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="H15" s="15">
         <v>14.5</v>
       </c>
-      <c r="F15" s="3">
-        <v>33.5</v>
-      </c>
-      <c r="G15" s="15">
-        <v>57.5</v>
-      </c>
-      <c r="H15" s="15">
-        <v>75.5</v>
-      </c>
       <c r="I15" s="20">
-        <v>105.5</v>
+        <v>19.5</v>
       </c>
       <c r="J15" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.2083333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K15" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2329,37 +2442,37 @@
     </row>
     <row r="16" spans="1:11" ht="18">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
-        <v>111056</v>
+        <v>100677</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8</v>
+      </c>
+      <c r="G16" s="15">
         <v>12</v>
       </c>
-      <c r="E16" s="28">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3">
-        <v>35</v>
-      </c>
-      <c r="G16" s="15">
-        <v>59</v>
-      </c>
       <c r="H16" s="15">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="I16" s="20">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="J16" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="K16" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2368,37 +2481,37 @@
     </row>
     <row r="17" spans="1:11" ht="18">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B17" s="7">
-        <v>114100</v>
+        <v>104343</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15">
         <v>12</v>
       </c>
-      <c r="E17" s="28">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3">
-        <v>36</v>
-      </c>
-      <c r="G17" s="15">
-        <v>60</v>
-      </c>
       <c r="H17" s="15">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I17" s="20">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="J17" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2407,37 +2520,37 @@
     </row>
     <row r="18" spans="1:11" ht="18">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7">
-        <v>110575</v>
+        <v>109819</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="15">
         <v>12</v>
       </c>
-      <c r="E18" s="28">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
-        <v>36</v>
-      </c>
-      <c r="G18" s="15">
-        <v>60</v>
-      </c>
       <c r="H18" s="15">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I18" s="20">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="J18" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2446,37 +2559,37 @@
     </row>
     <row r="19" spans="1:11" ht="18">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="7">
-        <v>113450</v>
+        <v>112522</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8</v>
+      </c>
+      <c r="G19" s="15">
         <v>12</v>
       </c>
-      <c r="E19" s="28">
-        <v>10.5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>37.5</v>
-      </c>
-      <c r="G19" s="15">
-        <v>61.5</v>
-      </c>
       <c r="H19" s="15">
-        <v>79.5</v>
+        <v>15</v>
       </c>
       <c r="I19" s="20">
-        <v>109.5</v>
+        <v>20</v>
       </c>
       <c r="J19" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="K19" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2485,37 +2598,37 @@
     </row>
     <row r="20" spans="1:11" ht="18">
       <c r="A20" s="26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B20" s="7">
-        <v>109998</v>
+        <v>90355</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="15">
         <v>12</v>
       </c>
-      <c r="E20" s="28">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>38</v>
-      </c>
-      <c r="G20" s="15">
-        <v>62</v>
-      </c>
       <c r="H20" s="15">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I20" s="20">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="J20" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="K20" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2524,37 +2637,37 @@
     </row>
     <row r="21" spans="1:11" ht="18">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B21" s="7">
-        <v>115047</v>
+        <v>102825</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>8</v>
+      </c>
+      <c r="G21" s="15">
         <v>12</v>
       </c>
-      <c r="E21" s="28">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>38</v>
-      </c>
-      <c r="G21" s="15">
-        <v>62</v>
-      </c>
       <c r="H21" s="15">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I21" s="20">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="J21" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="K21" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2563,37 +2676,37 @@
     </row>
     <row r="22" spans="1:11" ht="18">
       <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7">
+        <v>106018</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>46059</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="7">
-        <v>112083</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>46022</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
+      <c r="G22" s="15">
         <v>12</v>
       </c>
-      <c r="E22" s="28">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3">
-        <v>39</v>
-      </c>
-      <c r="G22" s="15">
-        <v>63</v>
-      </c>
       <c r="H22" s="15">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I22" s="20">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="J22" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K22" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2602,37 +2715,37 @@
     </row>
     <row r="23" spans="1:11" ht="18">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7">
-        <v>115404</v>
+        <v>107488</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15">
         <v>12</v>
       </c>
-      <c r="E23" s="28">
-        <v>8.5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>39.5</v>
-      </c>
-      <c r="G23" s="15">
-        <v>63.5</v>
-      </c>
       <c r="H23" s="15">
-        <v>81.5</v>
+        <v>15</v>
       </c>
       <c r="I23" s="20">
-        <v>111.5</v>
+        <v>20</v>
       </c>
       <c r="J23" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
       <c r="K23" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2641,37 +2754,37 @@
     </row>
     <row r="24" spans="1:11" ht="18">
       <c r="A24" s="6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7">
-        <v>111960</v>
+        <v>65046</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8</v>
+      </c>
+      <c r="G24" s="15">
         <v>12</v>
       </c>
-      <c r="E24" s="28">
-        <v>8.5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>39.5</v>
-      </c>
-      <c r="G24" s="15">
-        <v>63.5</v>
-      </c>
       <c r="H24" s="15">
-        <v>81.5</v>
+        <v>15</v>
       </c>
       <c r="I24" s="20">
-        <v>111.5</v>
+        <v>20</v>
       </c>
       <c r="J24" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
       <c r="K24" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2680,37 +2793,37 @@
     </row>
     <row r="25" spans="1:11" ht="18">
       <c r="A25" s="6" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7">
-        <v>101640</v>
+        <v>110105</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>8</v>
+      </c>
+      <c r="G25" s="15">
         <v>12</v>
       </c>
-      <c r="E25" s="28">
-        <v>7.5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>40.5</v>
-      </c>
-      <c r="G25" s="15">
-        <v>64.5</v>
-      </c>
       <c r="H25" s="15">
-        <v>82.5</v>
+        <v>15</v>
       </c>
       <c r="I25" s="20">
-        <v>112.5</v>
+        <v>20</v>
       </c>
       <c r="J25" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="K25" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2719,37 +2832,37 @@
     </row>
     <row r="26" spans="1:11" ht="18">
       <c r="A26" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7">
-        <v>109819</v>
+        <v>98797</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="15">
         <v>12</v>
       </c>
-      <c r="E26" s="28">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3">
-        <v>41</v>
-      </c>
-      <c r="G26" s="15">
-        <v>65</v>
-      </c>
       <c r="H26" s="15">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I26" s="20">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J26" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.58333333333333337</v>
+        <v>0</v>
       </c>
       <c r="K26" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2758,37 +2871,37 @@
     </row>
     <row r="27" spans="1:11" ht="18">
       <c r="A27" s="26" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
-        <v>106018</v>
+        <v>59120</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8</v>
+      </c>
+      <c r="G27" s="15">
         <v>12</v>
       </c>
-      <c r="E27" s="28">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3">
-        <v>41</v>
-      </c>
-      <c r="G27" s="15">
-        <v>65</v>
-      </c>
       <c r="H27" s="15">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I27" s="20">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J27" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.58333333333333337</v>
+        <v>0</v>
       </c>
       <c r="K27" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2797,37 +2910,37 @@
     </row>
     <row r="28" spans="1:11" ht="18">
       <c r="A28" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7">
-        <v>95148</v>
+        <v>69684</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8</v>
+      </c>
+      <c r="G28" s="15">
         <v>12</v>
       </c>
-      <c r="E28" s="28">
-        <v>6.5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>41.5</v>
-      </c>
-      <c r="G28" s="15">
-        <v>65.5</v>
-      </c>
       <c r="H28" s="15">
-        <v>83.5</v>
+        <v>15</v>
       </c>
       <c r="I28" s="20">
-        <v>113.5</v>
+        <v>20</v>
       </c>
       <c r="J28" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="K28" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2836,37 +2949,37 @@
     </row>
     <row r="29" spans="1:11" ht="18">
       <c r="A29" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B29" s="7">
-        <v>110105</v>
+        <v>113076</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>8</v>
+      </c>
+      <c r="G29" s="15">
         <v>12</v>
       </c>
-      <c r="E29" s="28">
-        <v>6.5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>41.5</v>
-      </c>
-      <c r="G29" s="15">
-        <v>65.5</v>
-      </c>
       <c r="H29" s="15">
-        <v>83.5</v>
+        <v>15</v>
       </c>
       <c r="I29" s="20">
-        <v>113.5</v>
+        <v>20</v>
       </c>
       <c r="J29" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="K29" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2875,37 +2988,37 @@
     </row>
     <row r="30" spans="1:11" ht="18">
       <c r="A30" s="6" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B30" s="7">
-        <v>114157</v>
+        <v>108405</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="28">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>8</v>
+      </c>
+      <c r="G30" s="15">
         <v>12</v>
       </c>
-      <c r="E30" s="28">
-        <v>6</v>
-      </c>
-      <c r="F30" s="3">
-        <v>42</v>
-      </c>
-      <c r="G30" s="15">
-        <v>66</v>
-      </c>
       <c r="H30" s="15">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I30" s="20">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="J30" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K30" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2914,37 +3027,37 @@
     </row>
     <row r="31" spans="1:11" ht="18">
       <c r="A31" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7">
-        <v>116060</v>
+        <v>114157</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>8</v>
+      </c>
+      <c r="G31" s="15">
         <v>12</v>
       </c>
-      <c r="E31" s="28">
-        <v>6</v>
-      </c>
-      <c r="F31" s="3">
-        <v>42</v>
-      </c>
-      <c r="G31" s="15">
-        <v>66</v>
-      </c>
       <c r="H31" s="15">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I31" s="20">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="J31" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K31" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2953,37 +3066,37 @@
     </row>
     <row r="32" spans="1:11" ht="18">
       <c r="A32" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7">
-        <v>113076</v>
+        <v>115404</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="28">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>8</v>
+      </c>
+      <c r="G32" s="15">
         <v>12</v>
       </c>
-      <c r="E32" s="28">
-        <v>6</v>
-      </c>
-      <c r="F32" s="3">
-        <v>42</v>
-      </c>
-      <c r="G32" s="15">
-        <v>66</v>
-      </c>
       <c r="H32" s="15">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I32" s="20">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="J32" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K32" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2992,37 +3105,37 @@
     </row>
     <row r="33" spans="1:11" ht="18">
       <c r="A33" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B33" s="7">
-        <v>108658</v>
+        <v>104750</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8</v>
+      </c>
+      <c r="G33" s="15">
         <v>12</v>
       </c>
-      <c r="E33" s="28">
-        <v>5.5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>42.5</v>
-      </c>
-      <c r="G33" s="15">
-        <v>66.5</v>
-      </c>
       <c r="H33" s="15">
-        <v>84.5</v>
+        <v>15</v>
       </c>
       <c r="I33" s="20">
-        <v>114.5</v>
+        <v>20</v>
       </c>
       <c r="J33" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="K33" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3038,30 +3151,30 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>8</v>
+      </c>
+      <c r="G34" s="15">
         <v>12</v>
       </c>
-      <c r="E34" s="28">
-        <v>5.5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>42.5</v>
-      </c>
-      <c r="G34" s="15">
-        <v>66.5</v>
-      </c>
       <c r="H34" s="15">
-        <v>84.5</v>
+        <v>15</v>
       </c>
       <c r="I34" s="20">
-        <v>114.5</v>
+        <v>20</v>
       </c>
       <c r="J34" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="K34" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3070,37 +3183,37 @@
     </row>
     <row r="35" spans="1:11" ht="18">
       <c r="A35" s="26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B35" s="7">
-        <v>63441</v>
+        <v>103982</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="28">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8</v>
+      </c>
+      <c r="G35" s="15">
         <v>12</v>
       </c>
-      <c r="E35" s="28">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>43</v>
-      </c>
-      <c r="G35" s="15">
-        <v>67</v>
-      </c>
       <c r="H35" s="15">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I35" s="20">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="J35" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="K35" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3109,37 +3222,37 @@
     </row>
     <row r="36" spans="1:11" ht="18">
       <c r="A36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="7">
+        <v>110575</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>46059</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="28">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="15">
+        <v>12</v>
+      </c>
+      <c r="H36" s="15">
         <v>15</v>
       </c>
-      <c r="B36" s="7">
-        <v>109007</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="0"/>
-        <v>46022</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E36" s="28">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3">
-        <v>43</v>
-      </c>
-      <c r="G36" s="15">
-        <v>67</v>
-      </c>
-      <c r="H36" s="15">
-        <v>85</v>
-      </c>
       <c r="I36" s="20">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="J36" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="K36" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3148,37 +3261,37 @@
     </row>
     <row r="37" spans="1:11" ht="18">
       <c r="A37" s="6" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B37" s="7">
-        <v>112522</v>
+        <v>47116</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="28">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>8</v>
+      </c>
+      <c r="G37" s="15">
         <v>12</v>
       </c>
-      <c r="E37" s="28">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3">
-        <v>43</v>
-      </c>
-      <c r="G37" s="15">
-        <v>67</v>
-      </c>
       <c r="H37" s="15">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I37" s="20">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="J37" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="K37" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3187,37 +3300,37 @@
     </row>
     <row r="38" spans="1:11" ht="18">
       <c r="A38" s="6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B38" s="7">
-        <v>94205</v>
+        <v>63441</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="28">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="15">
         <v>12</v>
       </c>
-      <c r="E38" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="G38" s="15">
-        <v>67.5</v>
-      </c>
       <c r="H38" s="15">
-        <v>85.5</v>
+        <v>15</v>
       </c>
       <c r="I38" s="20">
-        <v>115.5</v>
+        <v>20</v>
       </c>
       <c r="J38" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="K38" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3226,37 +3339,37 @@
     </row>
     <row r="39" spans="1:11" ht="18">
       <c r="A39" s="6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B39" s="7">
-        <v>65046</v>
+        <v>111960</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15">
         <v>12</v>
       </c>
-      <c r="E39" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="F39" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="G39" s="15">
-        <v>67.5</v>
-      </c>
       <c r="H39" s="15">
-        <v>85.5</v>
+        <v>15</v>
       </c>
       <c r="I39" s="20">
-        <v>115.5</v>
+        <v>20</v>
       </c>
       <c r="J39" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="K39" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3265,37 +3378,37 @@
     </row>
     <row r="40" spans="1:11" ht="18">
       <c r="A40" s="6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B40" s="7">
-        <v>114664</v>
+        <v>101640</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>8</v>
+      </c>
+      <c r="G40" s="15">
         <v>12</v>
       </c>
-      <c r="E40" s="28">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3">
-        <v>44</v>
-      </c>
-      <c r="G40" s="15">
-        <v>68</v>
-      </c>
       <c r="H40" s="15">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I40" s="20">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="J40" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K40" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3304,37 +3417,37 @@
     </row>
     <row r="41" spans="1:11" ht="18">
       <c r="A41" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" s="7">
-        <v>88234</v>
+        <v>109998</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="28">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8</v>
+      </c>
+      <c r="G41" s="15">
         <v>12</v>
       </c>
-      <c r="E41" s="28">
-        <v>3.5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="G41" s="15">
-        <v>68.5</v>
-      </c>
       <c r="H41" s="15">
-        <v>86.5</v>
+        <v>15</v>
       </c>
       <c r="I41" s="20">
-        <v>116.5</v>
+        <v>20</v>
       </c>
       <c r="J41" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.29166666666666669</v>
+        <v>0</v>
       </c>
       <c r="K41" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3343,37 +3456,37 @@
     </row>
     <row r="42" spans="1:11" ht="18">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B42" s="7">
-        <v>81044</v>
+        <v>81618</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="28">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8</v>
+      </c>
+      <c r="G42" s="15">
         <v>12</v>
       </c>
-      <c r="E42" s="28">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>46</v>
-      </c>
-      <c r="G42" s="15">
-        <v>70</v>
-      </c>
       <c r="H42" s="15">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="I42" s="20">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J42" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K42" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3382,37 +3495,37 @@
     </row>
     <row r="43" spans="1:11" ht="18">
       <c r="A43" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B43" s="7">
-        <v>90177</v>
+        <v>109007</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ref="C43:D43" si="1">C42</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E43" s="28">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8</v>
+      </c>
+      <c r="G43" s="15">
         <v>12</v>
       </c>
-      <c r="E43" s="28">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>46</v>
-      </c>
-      <c r="G43" s="15">
-        <v>70</v>
-      </c>
       <c r="H43" s="15">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="I43" s="21">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J43" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K43" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3421,37 +3534,37 @@
     </row>
     <row r="44" spans="1:11" ht="18">
       <c r="A44" s="6" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B44" s="7">
-        <v>98797</v>
+        <v>81044</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ref="C44:D44" si="2">C43</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="28">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>8</v>
+      </c>
+      <c r="G44" s="15">
         <v>12</v>
       </c>
-      <c r="E44" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>46.5</v>
-      </c>
-      <c r="G44" s="15">
-        <v>70.5</v>
-      </c>
       <c r="H44" s="15">
-        <v>88.5</v>
+        <v>15</v>
       </c>
       <c r="I44" s="21">
-        <v>118.5</v>
+        <v>20</v>
       </c>
       <c r="J44" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K44" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3460,37 +3573,37 @@
     </row>
     <row r="45" spans="1:11" ht="18">
       <c r="A45" s="26" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B45" s="7">
-        <v>102825</v>
+        <v>94205</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ref="C45:D45" si="3">C44</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="28">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8</v>
+      </c>
+      <c r="G45" s="15">
         <v>12</v>
       </c>
-      <c r="E45" s="28">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>47</v>
-      </c>
-      <c r="G45" s="15">
-        <v>71</v>
-      </c>
       <c r="H45" s="15">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I45" s="21">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="J45" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3499,37 +3612,37 @@
     </row>
     <row r="46" spans="1:11" ht="18">
       <c r="A46" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B46" s="7">
-        <v>94156</v>
+        <v>90177</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ref="C46:D46" si="4">C45</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="28">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8</v>
+      </c>
+      <c r="G46" s="15">
         <v>12</v>
       </c>
-      <c r="E46" s="28">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>47</v>
-      </c>
-      <c r="G46" s="15">
-        <v>71</v>
-      </c>
       <c r="H46" s="15">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I46" s="21">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="J46" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3538,37 +3651,37 @@
     </row>
     <row r="47" spans="1:11" ht="18">
       <c r="A47" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B47" s="7">
-        <v>103982</v>
+        <v>108658</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ref="C47:D47" si="5">C46</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="28">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8</v>
+      </c>
+      <c r="G47" s="15">
         <v>12</v>
       </c>
-      <c r="E47" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>47.5</v>
-      </c>
-      <c r="G47" s="15">
-        <v>71.5</v>
-      </c>
       <c r="H47" s="15">
-        <v>89.5</v>
+        <v>15</v>
       </c>
       <c r="I47" s="21">
-        <v>119.5</v>
+        <v>20</v>
       </c>
       <c r="J47" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -3577,33 +3690,33 @@
     </row>
     <row r="48" spans="1:11" ht="18">
       <c r="A48" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B48" s="7">
-        <v>69684</v>
+        <v>114100</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ref="C48:D48" si="6">C47</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E48" s="28">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8</v>
+      </c>
+      <c r="G48" s="15">
         <v>12</v>
       </c>
-      <c r="E48" s="28">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>48</v>
-      </c>
-      <c r="G48" s="15">
-        <v>72</v>
-      </c>
       <c r="H48" s="15">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I48" s="21">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="J48" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
@@ -3616,33 +3729,33 @@
     </row>
     <row r="49" spans="1:11" ht="18">
       <c r="A49" s="6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B49" s="7">
-        <v>81618</v>
+        <v>112083</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ref="C49:D49" si="7">C48</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="28">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8</v>
+      </c>
+      <c r="G49" s="15">
         <v>12</v>
       </c>
-      <c r="E49" s="28">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>48</v>
-      </c>
-      <c r="G49" s="15">
-        <v>72</v>
-      </c>
       <c r="H49" s="15">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I49" s="21">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="J49" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
@@ -3654,43 +3767,17 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="18">
-      <c r="A50" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="10">
-        <v>59120</v>
-      </c>
-      <c r="C50" s="2">
-        <f t="shared" ref="C50:D50" si="8">C49</f>
-        <v>46022</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="E50" s="28">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>48</v>
-      </c>
-      <c r="G50" s="15">
-        <v>72</v>
-      </c>
-      <c r="H50" s="15">
-        <v>90</v>
-      </c>
-      <c r="I50" s="21">
-        <v>120</v>
-      </c>
-      <c r="J50" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="25" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:11" ht="18">
       <c r="A51" s="11"/>
@@ -3708,85 +3795,85 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>$B51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
       <formula>$B50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D50">
-    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E50">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F50 E51:F51">
-    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H50">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/legion_centurion/legion_centurion.xlsx
+++ b/legion_centurion/legion_centurion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/legion_centurion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76694F-0F67-5949-882C-BC254FCF9EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6D5233-0EF9-EE4A-A37F-42940B0A44D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B49CA26D-17E4-1041-9F6C-DBD86CE9FF01}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>MONICA ANDREA AMBRIZ GOMEZ</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>FERNANDO JAVIER DAVALOS FLORES</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA RIOS BERNAL</t>
   </si>
   <si>
     <t>ALEJANDRA IVETTE PEDROZA MACIAS</t>
@@ -535,79 +532,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{2A00E9DC-B766-6342-BF1B-2D1407F691B6}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <border>
         <left style="thin">
@@ -666,22 +591,6 @@
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="hair">
           <color indexed="64"/>
         </left>
@@ -1453,6 +1362,7 @@
     <sheetNames>
       <sheetName val="Respuestas de formulario 1"/>
       <sheetName val="Asesores"/>
+      <sheetName val="ESTATUS"/>
       <sheetName val="BD PROACTIVOS"/>
       <sheetName val="PROACTIVOS"/>
       <sheetName val="Ventas Mensuales"/>
@@ -1493,31 +1403,32 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}" name="Tabla1354" displayName="Tabla1354" ref="A1:K50" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <autoFilter ref="A1:K50" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}" name="Tabla1354" displayName="Tabla1354" ref="A1:K49" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:K49" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I39">
     <sortCondition descending="1" ref="E1:E39"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2CA99AFE-1903-6D4B-93D9-DD22E72018C3}" name="Asesor" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{8D0734FC-3769-4F41-9ECD-2C6FE21FFA0E}" name="Clave" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{1247CE0F-8F5E-194F-AD79-C20593AA6B7C}" name="Fecha_Corte" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{1B89683A-64AB-0646-9B15-2B5DA7E1CEEC}" name="Mes_Actual" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{C4F1D3A5-1E56-8C40-9BD7-1C13F22F25C5}" name="Total_Polizas" dataDxfId="26" dataCellStyle="Millares"/>
-    <tableColumn id="3" xr3:uid="{4C10EFC2-2323-664F-A579-A0B169BFB0BD}" name="Bronce" dataDxfId="25" dataCellStyle="Millares"/>
-    <tableColumn id="2" xr3:uid="{C05A17F7-6BDD-0C40-A77A-7F7E195BCDDE}" name="Plata" dataDxfId="24" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{9C5A32B0-F0C1-9341-8545-6E23D59A5A81}" name="Oro" dataDxfId="23" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{312E2988-4C52-5E40-BB07-41C4565E8822}" name="Platino" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{5E0081A6-70E5-1F47-8576-904196DF75C9}" name="Promedio_Mensual" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{2CA99AFE-1903-6D4B-93D9-DD22E72018C3}" name="Asesor" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{8D0734FC-3769-4F41-9ECD-2C6FE21FFA0E}" name="Clave" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{1247CE0F-8F5E-194F-AD79-C20593AA6B7C}" name="Fecha_Corte" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{1B89683A-64AB-0646-9B15-2B5DA7E1CEEC}" name="Mes_Actual" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{C4F1D3A5-1E56-8C40-9BD7-1C13F22F25C5}" name="Total_Polizas" dataDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{4C10EFC2-2323-664F-A579-A0B169BFB0BD}" name="Bronce" dataDxfId="20" dataCellStyle="Millares"/>
+    <tableColumn id="2" xr3:uid="{C05A17F7-6BDD-0C40-A77A-7F7E195BCDDE}" name="Plata" dataDxfId="19" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{9C5A32B0-F0C1-9341-8545-6E23D59A5A81}" name="Oro" dataDxfId="18" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{312E2988-4C52-5E40-BB07-41C4565E8822}" name="Platino" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{5E0081A6-70E5-1F47-8576-904196DF75C9}" name="Promedio_Mensual" dataDxfId="16">
       <calculatedColumnFormula>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{83B7E9DF-DD3C-F043-ADEE-4C5B72428CB8}" name="Va_En_Meta" dataDxfId="20">
+    <tableColumn id="11" xr3:uid="{83B7E9DF-DD3C-F043-ADEE-4C5B72428CB8}" name="Va_En_Meta" dataDxfId="15">
       <calculatedColumnFormula>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1842,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272306BB-1DE5-9749-A828-31E7777A186B}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1863,37 +1774,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18">
@@ -1904,29 +1815,29 @@
         <v>110453</v>
       </c>
       <c r="C2" s="2">
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -1935,37 +1846,37 @@
     </row>
     <row r="3" spans="1:11" ht="18">
       <c r="A3" s="26" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
-        <v>94156</v>
+        <v>47116</v>
       </c>
       <c r="C3" s="2">
         <f>C2</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D3" s="1">
         <f>D2</f>
         <v>2</v>
       </c>
       <c r="E3" s="28">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="3">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G3" s="15">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="H3" s="15">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I3" s="20">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="J3" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K3" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -1974,37 +1885,37 @@
     </row>
     <row r="4" spans="1:11" ht="18">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>80122</v>
+        <v>104718</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:D42" si="0">C3</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4" s="28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G4" s="15">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H4" s="15">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I4" s="20">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="J4" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2013,37 +1924,37 @@
     </row>
     <row r="5" spans="1:11" ht="18">
       <c r="A5" s="26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B5" s="7">
-        <v>113450</v>
+        <v>116060</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G5" s="15">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H5" s="15">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I5" s="20">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="J5" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K5" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2055,11 +1966,11 @@
         <v>52</v>
       </c>
       <c r="B6" s="7">
-        <v>105696</v>
+        <v>113450</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
@@ -2091,14 +2002,14 @@
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7">
-        <v>95148</v>
+        <v>111056</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -2130,37 +2041,37 @@
     </row>
     <row r="8" spans="1:11" ht="18">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7">
-        <v>88234</v>
+        <v>95148</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15">
+        <v>11</v>
+      </c>
+      <c r="H8" s="15">
+        <v>14</v>
+      </c>
+      <c r="I8" s="20">
+        <v>19</v>
+      </c>
+      <c r="J8" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G8" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="H8" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="I8" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="J8" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.25</v>
       </c>
       <c r="K8" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2169,37 +2080,37 @@
     </row>
     <row r="9" spans="1:11" ht="18">
       <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7">
+        <v>80122</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>46071</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
-        <v>108404</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>46059</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="15">
+        <v>11</v>
+      </c>
+      <c r="H9" s="15">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20">
+        <v>19</v>
+      </c>
+      <c r="J9" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G9" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="H9" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="I9" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="J9" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.25</v>
       </c>
       <c r="K9" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2208,37 +2119,37 @@
     </row>
     <row r="10" spans="1:11" ht="18">
       <c r="A10" s="26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>80925</v>
+        <v>108405</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7</v>
+      </c>
+      <c r="G10" s="15">
+        <v>11</v>
+      </c>
+      <c r="H10" s="15">
+        <v>14</v>
+      </c>
+      <c r="I10" s="20">
+        <v>19</v>
+      </c>
+      <c r="J10" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G10" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="H10" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="I10" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="J10" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.25</v>
       </c>
       <c r="K10" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2247,37 +2158,37 @@
     </row>
     <row r="11" spans="1:11" ht="18">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7">
-        <v>104718</v>
+        <v>105696</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15">
+        <v>11</v>
+      </c>
+      <c r="H11" s="15">
+        <v>14</v>
+      </c>
+      <c r="I11" s="20">
+        <v>19</v>
+      </c>
+      <c r="J11" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G11" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="H11" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="I11" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="J11" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.25</v>
       </c>
       <c r="K11" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2286,37 +2197,37 @@
     </row>
     <row r="12" spans="1:11" ht="18">
       <c r="A12" s="26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7">
-        <v>116060</v>
+        <v>90355</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15">
+        <v>11</v>
+      </c>
+      <c r="H12" s="15">
+        <v>14</v>
+      </c>
+      <c r="I12" s="20">
+        <v>19</v>
+      </c>
+      <c r="J12" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G12" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="H12" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="I12" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="J12" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.25</v>
       </c>
       <c r="K12" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2325,37 +2236,37 @@
     </row>
     <row r="13" spans="1:11" ht="18">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B13" s="7">
-        <v>111056</v>
+        <v>87538</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15">
+        <v>11</v>
+      </c>
+      <c r="H13" s="15">
+        <v>14</v>
+      </c>
+      <c r="I13" s="20">
+        <v>19</v>
+      </c>
+      <c r="J13" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G13" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="H13" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="I13" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="J13" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.25</v>
       </c>
       <c r="K13" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2364,37 +2275,37 @@
     </row>
     <row r="14" spans="1:11" ht="18">
       <c r="A14" s="6" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7">
-        <v>87538</v>
+        <v>94156</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15">
+        <v>11</v>
+      </c>
+      <c r="H14" s="15">
+        <v>14</v>
+      </c>
+      <c r="I14" s="20">
+        <v>19</v>
+      </c>
+      <c r="J14" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G14" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="H14" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="I14" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="J14" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.25</v>
       </c>
       <c r="K14" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2403,14 +2314,14 @@
     </row>
     <row r="15" spans="1:11" ht="18">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>115047</v>
+        <v>100677</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -2442,37 +2353,37 @@
     </row>
     <row r="16" spans="1:11" ht="18">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B16" s="7">
-        <v>100677</v>
+        <v>108404</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E16" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G16" s="15">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="H16" s="15">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I16" s="20">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J16" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K16" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2481,37 +2392,37 @@
     </row>
     <row r="17" spans="1:11" ht="18">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7">
-        <v>104343</v>
+        <v>88234</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E17" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G17" s="15">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="H17" s="15">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I17" s="20">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J17" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K17" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2520,37 +2431,37 @@
     </row>
     <row r="18" spans="1:11" ht="18">
       <c r="A18" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7">
-        <v>109819</v>
+        <v>110105</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E18" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G18" s="15">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="H18" s="15">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I18" s="20">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J18" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K18" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2559,37 +2470,37 @@
     </row>
     <row r="19" spans="1:11" ht="18">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7">
-        <v>112522</v>
+        <v>115047</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G19" s="15">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="H19" s="15">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I19" s="20">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J19" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K19" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2598,37 +2509,37 @@
     </row>
     <row r="20" spans="1:11" ht="18">
       <c r="A20" s="26" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
-        <v>90355</v>
+        <v>80925</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E20" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G20" s="15">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="H20" s="15">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I20" s="20">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J20" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K20" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
@@ -2637,14 +2548,14 @@
     </row>
     <row r="21" spans="1:11" ht="18">
       <c r="A21" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B21" s="7">
-        <v>102825</v>
+        <v>109819</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -2676,14 +2587,14 @@
     </row>
     <row r="22" spans="1:11" ht="18">
       <c r="A22" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7">
-        <v>106018</v>
+        <v>63441</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -2715,14 +2626,14 @@
     </row>
     <row r="23" spans="1:11" ht="18">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7">
-        <v>107488</v>
+        <v>115404</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -2754,14 +2665,14 @@
     </row>
     <row r="24" spans="1:11" ht="18">
       <c r="A24" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B24" s="7">
-        <v>65046</v>
+        <v>106018</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -2793,14 +2704,14 @@
     </row>
     <row r="25" spans="1:11" ht="18">
       <c r="A25" s="6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B25" s="7">
-        <v>110105</v>
+        <v>113076</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -2832,14 +2743,14 @@
     </row>
     <row r="26" spans="1:11" ht="18">
       <c r="A26" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" s="7">
-        <v>98797</v>
+        <v>90177</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -2871,14 +2782,14 @@
     </row>
     <row r="27" spans="1:11" ht="18">
       <c r="A27" s="26" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7">
-        <v>59120</v>
+        <v>108658</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -2910,14 +2821,14 @@
     </row>
     <row r="28" spans="1:11" ht="18">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="7">
-        <v>69684</v>
+        <v>102825</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -2949,14 +2860,14 @@
     </row>
     <row r="29" spans="1:11" ht="18">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B29" s="7">
-        <v>113076</v>
+        <v>112522</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -2988,14 +2899,14 @@
     </row>
     <row r="30" spans="1:11" ht="18">
       <c r="A30" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" s="7">
-        <v>108405</v>
+        <v>104343</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -3027,14 +2938,14 @@
     </row>
     <row r="31" spans="1:11" ht="18">
       <c r="A31" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7">
-        <v>114157</v>
+        <v>81618</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -3066,14 +2977,14 @@
     </row>
     <row r="32" spans="1:11" ht="18">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" s="7">
-        <v>115404</v>
+        <v>114431</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -3105,14 +3016,14 @@
     </row>
     <row r="33" spans="1:11" ht="18">
       <c r="A33" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B33" s="7">
-        <v>104750</v>
+        <v>110575</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -3144,14 +3055,14 @@
     </row>
     <row r="34" spans="1:11" ht="18">
       <c r="A34" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B34" s="7">
-        <v>114431</v>
+        <v>81044</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -3183,14 +3094,14 @@
     </row>
     <row r="35" spans="1:11" ht="18">
       <c r="A35" s="26" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B35" s="7">
-        <v>103982</v>
+        <v>107488</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -3222,14 +3133,14 @@
     </row>
     <row r="36" spans="1:11" ht="18">
       <c r="A36" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7">
-        <v>110575</v>
+        <v>104750</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -3261,14 +3172,14 @@
     </row>
     <row r="37" spans="1:11" ht="18">
       <c r="A37" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B37" s="7">
-        <v>47116</v>
+        <v>114157</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -3300,14 +3211,14 @@
     </row>
     <row r="38" spans="1:11" ht="18">
       <c r="A38" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B38" s="7">
-        <v>63441</v>
+        <v>59120</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -3339,14 +3250,14 @@
     </row>
     <row r="39" spans="1:11" ht="18">
       <c r="A39" s="6" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7">
-        <v>111960</v>
+        <v>114100</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -3378,14 +3289,14 @@
     </row>
     <row r="40" spans="1:11" ht="18">
       <c r="A40" s="6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B40" s="7">
-        <v>101640</v>
+        <v>98797</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -3417,14 +3328,14 @@
     </row>
     <row r="41" spans="1:11" ht="18">
       <c r="A41" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="7">
         <v>109998</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
@@ -3456,14 +3367,14 @@
     </row>
     <row r="42" spans="1:11" ht="18">
       <c r="A42" s="6" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B42" s="7">
-        <v>81618</v>
+        <v>111960</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -3495,14 +3406,14 @@
     </row>
     <row r="43" spans="1:11" ht="18">
       <c r="A43" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B43" s="7">
-        <v>109007</v>
+        <v>65046</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ref="C43:D43" si="1">C42</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
@@ -3534,14 +3445,14 @@
     </row>
     <row r="44" spans="1:11" ht="18">
       <c r="A44" s="6" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B44" s="7">
-        <v>81044</v>
+        <v>112083</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ref="C44:D44" si="2">C43</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
@@ -3573,14 +3484,14 @@
     </row>
     <row r="45" spans="1:11" ht="18">
       <c r="A45" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="7">
         <v>94205</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ref="C45:D45" si="3">C44</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="3"/>
@@ -3612,14 +3523,14 @@
     </row>
     <row r="46" spans="1:11" ht="18">
       <c r="A46" s="6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B46" s="7">
-        <v>90177</v>
+        <v>101640</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ref="C46:D46" si="4">C45</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="4"/>
@@ -3651,14 +3562,14 @@
     </row>
     <row r="47" spans="1:11" ht="18">
       <c r="A47" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B47" s="7">
-        <v>108658</v>
+        <v>69684</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ref="C47:D47" si="5">C46</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="5"/>
@@ -3690,14 +3601,14 @@
     </row>
     <row r="48" spans="1:11" ht="18">
       <c r="A48" s="8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B48" s="7">
-        <v>114100</v>
+        <v>109007</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ref="C48:D48" si="6">C47</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="6"/>
@@ -3728,152 +3639,103 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="18">
-      <c r="A49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="7">
-        <v>112083</v>
-      </c>
-      <c r="C49" s="2">
-        <f t="shared" ref="C49:D49" si="7">C48</f>
-        <v>46059</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="E49" s="28">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>8</v>
-      </c>
-      <c r="G49" s="15">
-        <v>12</v>
-      </c>
-      <c r="H49" s="15">
-        <v>15</v>
-      </c>
-      <c r="I49" s="21">
-        <v>20</v>
-      </c>
-      <c r="J49" s="23">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="25" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="18">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="1:11" ht="18">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="27"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="A3 C2:D49 G2:H49">
+    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>$B51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="A50:B50">
+    <cfRule type="expression" dxfId="4" priority="12" stopIfTrue="1">
       <formula>$B50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D50">
-    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+      <formula>$B49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E50">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="E2:E49">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F50 E51:F51">
-    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="E50:F50 F2:F49">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H50">
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
